--- a/2024/shuffle-architecute/Teste10/content/results/metrics_1_3.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_1_3.xlsx
@@ -488,38 +488,38 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_3_22</t>
+          <t>model_1_3_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9605783941444839</v>
+        <v>0.9013696977237876</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7542416472454169</v>
+        <v>0.7452294057592936</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7387570857222183</v>
+        <v>0.9584857489617969</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7864169759874879</v>
+        <v>0.4070310952897849</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7980956992599975</v>
+        <v>0.8161842207594914</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1654440313577652</v>
+        <v>0.4139302372932434</v>
       </c>
       <c r="H2" t="n">
-        <v>1.643387198448181</v>
+        <v>1.703652143478394</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09535317867994308</v>
+        <v>0.2544887661933899</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6628289818763733</v>
+        <v>1.308714389801025</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3790910840034485</v>
+        <v>0.7816017270088196</v>
       </c>
     </row>
     <row r="3">
@@ -529,108 +529,108 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9606910479117409</v>
+        <v>0.9010539078859744</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7542415122947108</v>
+        <v>0.7447767049181797</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7361201509882476</v>
+        <v>0.9587945056772867</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7859120758802127</v>
+        <v>0.4118355240946926</v>
       </c>
       <c r="F3" t="n">
-        <v>0.797422125090216</v>
+        <v>0.8176537612623369</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1649712324142456</v>
+        <v>0.4152555763721466</v>
       </c>
       <c r="H3" t="n">
-        <v>1.643388271331787</v>
+        <v>1.706679344177246</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0963156595826149</v>
+        <v>0.2525960505008698</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6643959283828735</v>
+        <v>1.298110723495483</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3803557753562927</v>
+        <v>0.7753530740737915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_3_21</t>
+          <t>model_1_3_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.960459880857748</v>
+        <v>0.900730068766929</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7542404205480339</v>
+        <v>0.7443118337489083</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7414194279098855</v>
+        <v>0.9591004585444448</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7869055556302337</v>
+        <v>0.4167432805193537</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7987582536935636</v>
+        <v>0.8191479192708527</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1659414172172546</v>
+        <v>0.4166146218776703</v>
       </c>
       <c r="H4" t="n">
-        <v>1.64339554309845</v>
+        <v>1.709787845611572</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0943814292550087</v>
+        <v>0.2507205307483673</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6613127589225769</v>
+        <v>1.287279009819031</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3778470754623413</v>
+        <v>0.7689997553825378</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_3_24</t>
+          <t>model_1_3_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9607980727320808</v>
+        <v>0.9003978073242583</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7542400992228185</v>
+        <v>0.7438343417066815</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7335073655390244</v>
+        <v>0.9594032014682539</v>
       </c>
       <c r="E5" t="n">
-        <v>0.785391685608871</v>
+        <v>0.4217557848014681</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7967380974026282</v>
+        <v>0.8206669119783222</v>
       </c>
       <c r="G5" t="n">
-        <v>0.164522111415863</v>
+        <v>0.4180090725421906</v>
       </c>
       <c r="H5" t="n">
-        <v>1.643397569656372</v>
+        <v>1.712980985641479</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09726931899785995</v>
+        <v>0.2488646507263184</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6660109162330627</v>
+        <v>1.276216149330139</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3816400766372681</v>
+        <v>0.762540876865387</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9603353499833651</v>
+        <v>0.9000568243005765</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7542377449640525</v>
+        <v>0.7433437996586965</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7441070702253469</v>
+        <v>0.9597023840341395</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7873764477048952</v>
+        <v>0.4268722554775317</v>
       </c>
       <c r="F6" t="n">
-        <v>0.799408650032817</v>
+        <v>0.8222105783316459</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1664640456438065</v>
+        <v>0.4194401204586029</v>
       </c>
       <c r="H6" t="n">
-        <v>1.643413305282593</v>
+        <v>1.716261267662048</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09340044856071472</v>
+        <v>0.2470306307077408</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6598514318466187</v>
+        <v>1.264923810958862</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3766259253025055</v>
+        <v>0.7559770345687866</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9602045721948772</v>
+        <v>0.8997068058098868</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7542336381225958</v>
+        <v>0.7428397772649245</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7468191820889176</v>
+        <v>0.9599977788866236</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7878291845063052</v>
+        <v>0.4320946889315254</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8000464227172132</v>
+        <v>0.8237789412448007</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1670128852128983</v>
+        <v>0.4209090769290924</v>
       </c>
       <c r="H7" t="n">
-        <v>1.643440842628479</v>
+        <v>1.719631671905518</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09241052716970444</v>
+        <v>0.245219811797142</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6584463715553284</v>
+        <v>1.253397583961487</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3754284381866455</v>
+        <v>0.7493082284927368</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9600673671287132</v>
+        <v>0.899347192424825</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7542279492040852</v>
+        <v>0.7423218288739348</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7495576086130551</v>
+        <v>0.9602889335936218</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7882624617267423</v>
+        <v>0.4374233372488624</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8006706678313804</v>
+        <v>0.8253715638982885</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1675887107849121</v>
+        <v>0.4224182963371277</v>
       </c>
       <c r="H8" t="n">
-        <v>1.643478751182556</v>
+        <v>1.723095178604126</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09141100943088531</v>
+        <v>0.2434349805116653</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6571018099784851</v>
+        <v>1.241636991500854</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3742563724517822</v>
+        <v>0.7425363063812256</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9599234763873234</v>
+        <v>0.8989776446102923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7542206534635156</v>
+        <v>0.7417894227090855</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7523227325150676</v>
+        <v>0.9605753543615202</v>
       </c>
       <c r="E9" t="n">
-        <v>0.788675044456509</v>
+        <v>0.4428573987742662</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8012804082325621</v>
+        <v>0.8269884502576939</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1681925803422928</v>
+        <v>0.423969179391861</v>
       </c>
       <c r="H9" t="n">
-        <v>1.643527746200562</v>
+        <v>1.72665548324585</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09040174633264542</v>
+        <v>0.2416791766881943</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6558213829994202</v>
+        <v>1.229643821716309</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3731115460395813</v>
+        <v>0.7356610894203186</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9597727359292411</v>
+        <v>0.8985977318569012</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7542116741123884</v>
+        <v>0.7412421066981379</v>
       </c>
       <c r="D10" t="n">
-        <v>0.755114553934495</v>
+        <v>0.960856875820163</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7890660725727482</v>
+        <v>0.4483982251659785</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8018749290716636</v>
+        <v>0.8286291857926059</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1688252091407776</v>
+        <v>0.425563633441925</v>
       </c>
       <c r="H10" t="n">
-        <v>1.643587589263916</v>
+        <v>1.730315208435059</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08938273787498474</v>
+        <v>0.2399533987045288</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6546078324317932</v>
+        <v>1.217414855957031</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3719952702522278</v>
+        <v>0.7286845445632935</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9596148536202017</v>
+        <v>0.8982068384207745</v>
       </c>
       <c r="C11" t="n">
-        <v>0.754200884165602</v>
+        <v>0.740679375733464</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7579335278303001</v>
+        <v>0.9611329592821553</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7894340587445181</v>
+        <v>0.4540432590689883</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8024530424115036</v>
+        <v>0.8302933288857899</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1694878041744232</v>
+        <v>0.4272041022777557</v>
       </c>
       <c r="H11" t="n">
-        <v>1.643659830093384</v>
+        <v>1.734078168869019</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08835381269454956</v>
+        <v>0.2382609695196152</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6534658670425415</v>
+        <v>1.20495593547821</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3709098398685455</v>
+        <v>0.7216084599494934</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9594496265130306</v>
+        <v>0.8978046333848162</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7541882792562227</v>
+        <v>0.740100653017375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7607798899646374</v>
+        <v>0.9614032939473165</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7897779757497743</v>
+        <v>0.4597936753503078</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8030139326094917</v>
+        <v>0.8319805769892493</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1701812297105789</v>
+        <v>0.4288921058177948</v>
       </c>
       <c r="H12" t="n">
-        <v>1.643743991851807</v>
+        <v>1.737948179244995</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08731489628553391</v>
+        <v>0.236603781580925</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6523985266685486</v>
+        <v>1.192264556884766</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3698567152023315</v>
+        <v>0.7144341468811035</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.95927685560364</v>
+        <v>0.8973904134189559</v>
       </c>
       <c r="C13" t="n">
-        <v>0.754173728312787</v>
+        <v>0.7395054115894157</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7636550259858653</v>
+        <v>0.9616672961964892</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7900966332998728</v>
+        <v>0.4656489465818343</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8035567448061913</v>
+        <v>0.833690493328511</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1709062904119492</v>
+        <v>0.4306304454803467</v>
       </c>
       <c r="H13" t="n">
-        <v>1.643841505050659</v>
+        <v>1.741928577423096</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08626548200845718</v>
+        <v>0.2349854111671448</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6514096260070801</v>
+        <v>1.179341673851013</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3688375353813171</v>
+        <v>0.707163393497467</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9590961332724693</v>
+        <v>0.8969637465438732</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7541571451072067</v>
+        <v>0.738893075343326</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7665573768178126</v>
+        <v>0.9619246278450461</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7903880337070543</v>
+        <v>0.4716072794420849</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8040796717250107</v>
+        <v>0.8354223165862287</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1716647893190384</v>
+        <v>0.432421088218689</v>
       </c>
       <c r="H14" t="n">
-        <v>1.643952369689941</v>
+        <v>1.746023178100586</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08520612865686417</v>
+        <v>0.2334079146385193</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6505053043365479</v>
+        <v>1.166191220283508</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3678557276725769</v>
+        <v>0.6997995376586914</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9589073720442475</v>
+        <v>0.8965238447104246</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7541384515772038</v>
+        <v>0.7382630281687983</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7694890715958652</v>
+        <v>0.9621748380181322</v>
       </c>
       <c r="E15" t="n">
-        <v>0.790651728594439</v>
+        <v>0.4776675310253913</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8045825552740064</v>
+        <v>0.8371754880945481</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1724569648504257</v>
+        <v>0.4342672228813171</v>
       </c>
       <c r="H15" t="n">
-        <v>1.64407742023468</v>
+        <v>1.75023627281189</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08413606137037277</v>
+        <v>0.231874093413353</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6496869325637817</v>
+        <v>1.152815937995911</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3669115006923676</v>
+        <v>0.6923449039459229</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9587101817025212</v>
+        <v>0.8960702267083466</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7541175411417917</v>
+        <v>0.7376146931109338</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7724498934854214</v>
+        <v>0.9624175051243995</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7908854641788552</v>
+        <v>0.4838284505289405</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8050635122915528</v>
+        <v>0.8389493336763112</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1732845306396484</v>
+        <v>0.4361709952354431</v>
       </c>
       <c r="H16" t="n">
-        <v>1.644217252731323</v>
+        <v>1.754571676254272</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08305536955595016</v>
+        <v>0.23038649559021</v>
       </c>
       <c r="J16" t="n">
-        <v>0.64896160364151</v>
+        <v>1.13921844959259</v>
       </c>
       <c r="K16" t="n">
-        <v>0.366008460521698</v>
+        <v>0.6848023533821106</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9585043122477807</v>
+        <v>0.8956021182113705</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7540943351545117</v>
+        <v>0.7369474357532683</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7754394646331252</v>
+        <v>0.9626522155105717</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7910878603100371</v>
+        <v>0.4900872031282597</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8055213627308245</v>
+        <v>0.8407428044164716</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1741485148668289</v>
+        <v>0.43813556432724</v>
       </c>
       <c r="H17" t="n">
-        <v>1.644372463226318</v>
+        <v>1.759033679962158</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08196417987346649</v>
+        <v>0.2289476990699768</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6483334898948669</v>
+        <v>1.125405073165894</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3651488423347473</v>
+        <v>0.677176296710968</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9582895240624254</v>
+        <v>0.8951187239492944</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7540687390013839</v>
+        <v>0.7362606282964914</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7784590633315316</v>
+        <v>0.9628783400939914</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7912582103215076</v>
+        <v>0.4964418853629773</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8059556471734407</v>
+        <v>0.8425550774562618</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1750499308109283</v>
+        <v>0.4401642680168152</v>
       </c>
       <c r="H18" t="n">
-        <v>1.644543409347534</v>
+        <v>1.763626456260681</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08086203038692474</v>
+        <v>0.2275615185499191</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6478047966957092</v>
+        <v>1.111379981040955</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3643334209918976</v>
+        <v>0.6694704294204712</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9580654212188733</v>
+        <v>0.8946194637451335</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7540406361479448</v>
+        <v>0.7355536584487603</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7815074929985</v>
+        <v>0.9630956885128718</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7913935239854767</v>
+        <v>0.5028901468941276</v>
       </c>
       <c r="F19" t="n">
-        <v>0.80636378047792</v>
+        <v>0.8443853241023288</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1759904623031616</v>
+        <v>0.4422595500946045</v>
       </c>
       <c r="H19" t="n">
-        <v>1.644731521606445</v>
+        <v>1.768353939056396</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07974936068058014</v>
+        <v>0.2262291312217712</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6473848819732666</v>
+        <v>1.097148299217224</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3635671436786652</v>
+        <v>0.6616880297660828</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9578317504934568</v>
+        <v>0.8941033776176907</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7540099218291259</v>
+        <v>0.7348257648187075</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7845866144247606</v>
+        <v>0.9633035744848646</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7914929794186294</v>
+        <v>0.5094288901977408</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8067452619050532</v>
+        <v>0.8462319679398964</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1769711077213287</v>
+        <v>0.4444254338741302</v>
       </c>
       <c r="H20" t="n">
-        <v>1.644936800003052</v>
+        <v>1.773221254348755</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07862548530101776</v>
+        <v>0.2249547690153122</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6470762491226196</v>
+        <v>1.082716822624207</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3628508746623993</v>
+        <v>0.6538358926773071</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9575881812876207</v>
+        <v>0.8935697118550202</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7539764502573422</v>
+        <v>0.7340763027411902</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7876961112640288</v>
+        <v>0.9635017035796879</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7915545751163152</v>
+        <v>0.5160543796751662</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8070984062842793</v>
+        <v>0.8480942495527034</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1779933422803879</v>
+        <v>0.4466651678085327</v>
       </c>
       <c r="H21" t="n">
-        <v>1.645160675048828</v>
+        <v>1.778233051300049</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07749052345752716</v>
+        <v>0.2237401902675629</v>
       </c>
       <c r="J21" t="n">
-        <v>0.646885097026825</v>
+        <v>1.06809401512146</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3621878027915955</v>
+        <v>0.6459172964096069</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9573343776924595</v>
+        <v>0.8930175463162779</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7539401626716769</v>
+        <v>0.7333045446913933</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7908349474944305</v>
+        <v>0.9636893186800509</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7915764291166683</v>
+        <v>0.5227633443165411</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8074215583730708</v>
+        <v>0.8499707144206379</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1790584772825241</v>
+        <v>0.4489824175834656</v>
       </c>
       <c r="H22" t="n">
-        <v>1.645403265953064</v>
+        <v>1.783393740653992</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07634485512971878</v>
+        <v>0.2225900888442993</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6468172669410706</v>
+        <v>1.053287029266357</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3615810573101044</v>
+        <v>0.637938380241394</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9570699898177677</v>
+        <v>0.8924458429476902</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7539009192747388</v>
+        <v>0.7325097962891571</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7940049675406924</v>
+        <v>0.963866257074482</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7915566555940412</v>
+        <v>0.529550933490835</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8077133390530886</v>
+        <v>0.8518597186524504</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1801680624485016</v>
+        <v>0.4513817727565765</v>
       </c>
       <c r="H23" t="n">
-        <v>1.645665645599365</v>
+        <v>1.788708209991455</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0751878097653389</v>
+        <v>0.2215054333209991</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6468786001205444</v>
+        <v>1.038306474685669</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3610332012176514</v>
+        <v>0.629906177520752</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9567946355797113</v>
+        <v>0.8918539067402668</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7538586172676807</v>
+        <v>0.7316913283337487</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7972039770775077</v>
+        <v>0.9640318994794745</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7914933830525404</v>
+        <v>0.5364130391274455</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8079719888079118</v>
+        <v>0.8537600699798078</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1813236624002457</v>
+        <v>0.4538660049438477</v>
       </c>
       <c r="H24" t="n">
-        <v>1.645948529243469</v>
+        <v>1.794181346893311</v>
       </c>
       <c r="I24" t="n">
-        <v>0.07402017712593079</v>
+        <v>0.2204900234937668</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6470749974250793</v>
+        <v>1.02316153049469</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3605476021766663</v>
+        <v>0.6218256950378418</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9565080253936192</v>
+        <v>0.8912403882924116</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7538130931878205</v>
+        <v>0.7308483967953607</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8004342606425472</v>
+        <v>0.9641857688321339</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7913844975533387</v>
+        <v>0.5433441451842298</v>
       </c>
       <c r="F25" t="n">
-        <v>0.808195982690757</v>
+        <v>0.8556697532047637</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1825265139341354</v>
+        <v>0.456440806388855</v>
       </c>
       <c r="H25" t="n">
-        <v>1.646253108978271</v>
+        <v>1.79981803894043</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07284112274646759</v>
+        <v>0.2195467799901962</v>
       </c>
       <c r="J25" t="n">
-        <v>0.647412896156311</v>
+        <v>1.007864117622375</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3601270020008087</v>
+        <v>0.613705575466156</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9562097023148393</v>
+        <v>0.8906044199733879</v>
       </c>
       <c r="C26" t="n">
-        <v>0.753764226835091</v>
+        <v>0.7299802464130406</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8036939381487446</v>
+        <v>0.9643274341217744</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7912278973491538</v>
+        <v>0.550339012107177</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8083834050693605</v>
+        <v>0.8575873270313187</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1837785094976425</v>
+        <v>0.4591098129749298</v>
       </c>
       <c r="H26" t="n">
-        <v>1.646579742431641</v>
+        <v>1.805623412132263</v>
       </c>
       <c r="I26" t="n">
-        <v>0.07165134698152542</v>
+        <v>0.2186783403158188</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6478989124298096</v>
+        <v>0.9924260973930359</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3597750961780548</v>
+        <v>0.6055518388748169</v>
       </c>
     </row>
   </sheetData>
